--- a/data/figSup34Vm.xlsx
+++ b/data/figSup34Vm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\travail\sourcecode\developing\paper\centriG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdesbois/pg/chrisPg/centriG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BA339A-BBB0-4222-87EC-8AC13E5176F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFA0CEE-3DEC-E044-BBEC-64ED3D7B8F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1509,9 +1503,6 @@
     <t>vmsrndIsoStcDgain50Indisig</t>
   </si>
   <si>
-    <t>vmfrnIsodStcDlat50</t>
-  </si>
-  <si>
     <t>vmfrndIsoStcDlat50Indisig</t>
   </si>
   <si>
@@ -1522,13 +1513,16 @@
   </si>
   <si>
     <t>vmsrndIsoStcDlat50</t>
+  </si>
+  <si>
+    <t>vmfrndIsoStcDlat50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1577,7 +1571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1877,31 +1871,31 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection pane="topRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="9" width="27.5" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="17" width="29.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.5703125" customWidth="1"/>
+    <col min="13" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.5" customWidth="1"/>
     <col min="19" max="25" width="29" customWidth="1"/>
     <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="32.85546875" customWidth="1"/>
-    <col min="28" max="28" width="26.140625" customWidth="1"/>
-    <col min="29" max="33" width="29.5703125" customWidth="1"/>
-    <col min="34" max="34" width="27.85546875" customWidth="1"/>
-    <col min="35" max="35" width="31.140625" customWidth="1"/>
+    <col min="27" max="27" width="32.83203125" customWidth="1"/>
+    <col min="28" max="28" width="26.1640625" customWidth="1"/>
+    <col min="29" max="33" width="29.5" customWidth="1"/>
+    <col min="34" max="34" width="27.83203125" customWidth="1"/>
+    <col min="35" max="35" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>61</v>
       </c>
       <c r="Z1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA1" t="s">
         <v>489</v>
@@ -1990,19 +1984,19 @@
         <v>491</v>
       </c>
       <c r="AD1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE1" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>494</v>
       </c>
-      <c r="AG1" t="s">
-        <v>495</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2103,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2204,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2406,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2709,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3012,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3113,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3214,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3416,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3517,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3618,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3719,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3820,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3921,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4022,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4123,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4224,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4325,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4426,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -4527,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -4729,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -4830,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -4931,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5032,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5133,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5234,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5335,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5436,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5537,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5638,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
         <v>37</v>
       </c>
